--- a/data_year/zb/文化/公共图书馆基本情况/少儿图书馆.xlsx
+++ b/data_year/zb/文化/公共图书馆基本情况/少儿图书馆.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,580 +508,579 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>783.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1703.8</v>
+      </c>
       <c r="F2" t="n">
-        <v>1730</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>2121</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1839.1</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>2159.2</v>
+      </c>
       <c r="J2" t="n">
-        <v>88</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2967</v>
+      </c>
+      <c r="L2" t="n">
+        <v>115.6989</v>
+      </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>5124</v>
+      </c>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2778</v>
+      </c>
+      <c r="C3" t="n">
+        <v>502</v>
+      </c>
+      <c r="D3" t="n">
+        <v>934.087</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1738.918</v>
+      </c>
       <c r="F3" t="n">
-        <v>1774</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>1764</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1880.929</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3772</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2321.074</v>
+      </c>
       <c r="J3" t="n">
-        <v>91</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2714</v>
+      </c>
+      <c r="L3" t="n">
+        <v>102.3031</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1878</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4987</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.2066</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2990</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398</v>
+      </c>
       <c r="D4" t="n">
-        <v>783.9</v>
+        <v>943.0700000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1703.8</v>
+        <v>2087.166</v>
       </c>
       <c r="F4" t="n">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="G4" t="n">
-        <v>1839.1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>1937.635</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6744</v>
+      </c>
       <c r="I4" t="n">
-        <v>2159.2</v>
+        <v>3217.377</v>
       </c>
       <c r="J4" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K4" t="n">
-        <v>2967</v>
+        <v>2671</v>
       </c>
       <c r="L4" t="n">
-        <v>115.6989</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>116.4104</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2383</v>
+      </c>
       <c r="N4" t="n">
-        <v>5124</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>5684</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.6508</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2778</v>
+        <v>1719</v>
       </c>
       <c r="C5" t="n">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D5" t="n">
-        <v>934.087</v>
+        <v>977</v>
       </c>
       <c r="E5" t="n">
-        <v>1738.918</v>
+        <v>2285</v>
       </c>
       <c r="F5" t="n">
-        <v>1764</v>
+        <v>2170</v>
       </c>
       <c r="G5" t="n">
-        <v>1880.929</v>
+        <v>2132</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3772</v>
+        <v>3.42</v>
       </c>
       <c r="I5" t="n">
-        <v>2321.074</v>
+        <v>3165</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K5" t="n">
-        <v>2714</v>
+        <v>3286</v>
       </c>
       <c r="L5" t="n">
-        <v>102.3031</v>
+        <v>144</v>
       </c>
       <c r="M5" t="n">
-        <v>1878</v>
+        <v>2622</v>
       </c>
       <c r="N5" t="n">
-        <v>4987</v>
+        <v>6648</v>
       </c>
       <c r="O5" t="n">
-        <v>2.2066</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2990</v>
+        <v>2788</v>
       </c>
       <c r="C6" t="n">
-        <v>398</v>
+        <v>589</v>
       </c>
       <c r="D6" t="n">
-        <v>943.0700000000001</v>
+        <v>982.212</v>
       </c>
       <c r="E6" t="n">
-        <v>2087.166</v>
+        <v>2324.431</v>
       </c>
       <c r="F6" t="n">
-        <v>2124</v>
+        <v>2201</v>
       </c>
       <c r="G6" t="n">
-        <v>1937.635</v>
+        <v>2136.905</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6744</v>
+        <v>3.4717</v>
       </c>
       <c r="I6" t="n">
-        <v>3217.377</v>
+        <v>3392.289</v>
       </c>
       <c r="J6" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K6" t="n">
-        <v>2671</v>
+        <v>4145</v>
       </c>
       <c r="L6" t="n">
-        <v>116.4104</v>
+        <v>185.308</v>
       </c>
       <c r="M6" t="n">
-        <v>2383</v>
+        <v>3217</v>
       </c>
       <c r="N6" t="n">
-        <v>5684</v>
+        <v>7326</v>
       </c>
       <c r="O6" t="n">
-        <v>2.6508</v>
+        <v>3.0417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1719</v>
+        <v>3495</v>
       </c>
       <c r="C7" t="n">
-        <v>488</v>
+        <v>699</v>
       </c>
       <c r="D7" t="n">
-        <v>977</v>
+        <v>1054.455</v>
       </c>
       <c r="E7" t="n">
-        <v>2285</v>
+        <v>2852.743</v>
       </c>
       <c r="F7" t="n">
-        <v>2170</v>
+        <v>2262</v>
       </c>
       <c r="G7" t="n">
-        <v>2132</v>
+        <v>2373.122</v>
       </c>
       <c r="H7" t="n">
-        <v>3.42</v>
+        <v>3.8928</v>
       </c>
       <c r="I7" t="n">
-        <v>3165</v>
+        <v>3698.228</v>
       </c>
       <c r="J7" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K7" t="n">
-        <v>3286</v>
+        <v>4220</v>
       </c>
       <c r="L7" t="n">
-        <v>144</v>
+        <v>228.6401</v>
       </c>
       <c r="M7" t="n">
-        <v>2622</v>
+        <v>3655</v>
       </c>
       <c r="N7" t="n">
-        <v>6648</v>
+        <v>7645</v>
       </c>
       <c r="O7" t="n">
-        <v>2.66</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2788</v>
+        <v>3242</v>
       </c>
       <c r="C8" t="n">
-        <v>589</v>
+        <v>980</v>
       </c>
       <c r="D8" t="n">
-        <v>982.212</v>
+        <v>1117.004</v>
       </c>
       <c r="E8" t="n">
-        <v>2324.431</v>
+        <v>3346.897</v>
       </c>
       <c r="F8" t="n">
-        <v>2201</v>
+        <v>2510</v>
       </c>
       <c r="G8" t="n">
-        <v>2136.905</v>
+        <v>2815.718</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4717</v>
+        <v>4.1736</v>
       </c>
       <c r="I8" t="n">
-        <v>3392.289</v>
+        <v>4230.944</v>
       </c>
       <c r="J8" t="n">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K8" t="n">
-        <v>4145</v>
+        <v>4259</v>
       </c>
       <c r="L8" t="n">
-        <v>185.308</v>
+        <v>339.6484</v>
       </c>
       <c r="M8" t="n">
-        <v>3217</v>
+        <v>5933</v>
       </c>
       <c r="N8" t="n">
-        <v>7326</v>
+        <v>7839</v>
       </c>
       <c r="O8" t="n">
-        <v>3.0417</v>
+        <v>3.6125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3495</v>
+        <v>4710</v>
       </c>
       <c r="C9" t="n">
-        <v>699</v>
+        <v>1292</v>
       </c>
       <c r="D9" t="n">
-        <v>1054.455</v>
+        <v>1280.323</v>
       </c>
       <c r="E9" t="n">
-        <v>2852.743</v>
+        <v>3655.218</v>
       </c>
       <c r="F9" t="n">
-        <v>2262</v>
+        <v>2544</v>
       </c>
       <c r="G9" t="n">
-        <v>2373.122</v>
+        <v>3167.951</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8928</v>
+        <v>3.9722</v>
       </c>
       <c r="I9" t="n">
-        <v>3698.228</v>
+        <v>4368.532</v>
       </c>
       <c r="J9" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K9" t="n">
-        <v>4220</v>
+        <v>4399</v>
       </c>
       <c r="L9" t="n">
-        <v>228.6401</v>
+        <v>360.9082</v>
       </c>
       <c r="M9" t="n">
-        <v>3655</v>
+        <v>6592</v>
       </c>
       <c r="N9" t="n">
-        <v>7645</v>
+        <v>7802</v>
       </c>
       <c r="O9" t="n">
-        <v>3.37</v>
+        <v>3.7558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3242</v>
+        <v>4602</v>
       </c>
       <c r="C10" t="n">
-        <v>980</v>
+        <v>1396</v>
       </c>
       <c r="D10" t="n">
-        <v>1117.004</v>
+        <v>1213</v>
       </c>
       <c r="E10" t="n">
-        <v>3346.897</v>
+        <v>3823</v>
       </c>
       <c r="F10" t="n">
-        <v>2510</v>
+        <v>2531</v>
       </c>
       <c r="G10" t="n">
-        <v>2815.718</v>
+        <v>3697</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1736</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4230.944</v>
+        <v>4635</v>
       </c>
       <c r="J10" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" t="n">
-        <v>4259</v>
+        <v>4555</v>
       </c>
       <c r="L10" t="n">
-        <v>339.6484</v>
+        <v>400</v>
       </c>
       <c r="M10" t="n">
-        <v>5933</v>
+        <v>7972</v>
       </c>
       <c r="N10" t="n">
-        <v>7839</v>
+        <v>8036</v>
       </c>
       <c r="O10" t="n">
-        <v>3.6125</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4710</v>
+        <v>6111</v>
       </c>
       <c r="C11" t="n">
-        <v>1292</v>
+        <v>1486</v>
       </c>
       <c r="D11" t="n">
-        <v>1280.323</v>
+        <v>1195</v>
       </c>
       <c r="E11" t="n">
-        <v>3655.218</v>
+        <v>4059</v>
       </c>
       <c r="F11" t="n">
-        <v>2544</v>
+        <v>2520</v>
       </c>
       <c r="G11" t="n">
-        <v>3167.951</v>
+        <v>3789</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9722</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4368.532</v>
+        <v>5000</v>
       </c>
       <c r="J11" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K11" t="n">
-        <v>4399</v>
+        <v>4538</v>
       </c>
       <c r="L11" t="n">
-        <v>360.9082</v>
+        <v>431.6105</v>
       </c>
       <c r="M11" t="n">
-        <v>6592</v>
+        <v>9449</v>
       </c>
       <c r="N11" t="n">
-        <v>7802</v>
+        <v>8185</v>
       </c>
       <c r="O11" t="n">
-        <v>3.7558</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4602</v>
+        <v>4402</v>
       </c>
       <c r="C12" t="n">
-        <v>1396</v>
+        <v>1437</v>
       </c>
       <c r="D12" t="n">
-        <v>1213</v>
+        <v>983.42</v>
       </c>
       <c r="E12" t="n">
-        <v>3823</v>
+        <v>3022.71</v>
       </c>
       <c r="F12" t="n">
-        <v>2531</v>
+        <v>3965</v>
       </c>
       <c r="G12" t="n">
-        <v>3697</v>
+        <v>3114.93</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>5.7376</v>
       </c>
       <c r="I12" t="n">
-        <v>4635</v>
+        <v>9855.709999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K12" t="n">
-        <v>4555</v>
+        <v>6540</v>
       </c>
       <c r="L12" t="n">
-        <v>400</v>
+        <v>788.1725</v>
       </c>
       <c r="M12" t="n">
-        <v>7972</v>
+        <v>6194</v>
       </c>
       <c r="N12" t="n">
-        <v>8036</v>
+        <v>13311</v>
       </c>
       <c r="O12" t="n">
-        <v>3.9</v>
+        <v>5.7394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6111</v>
+        <v>3812</v>
       </c>
       <c r="C13" t="n">
-        <v>1486</v>
+        <v>2945</v>
       </c>
       <c r="D13" t="n">
-        <v>1195</v>
+        <v>1191.93</v>
       </c>
       <c r="E13" t="n">
-        <v>4059</v>
+        <v>3682.8</v>
       </c>
       <c r="F13" t="n">
-        <v>2520</v>
+        <v>2610</v>
       </c>
       <c r="G13" t="n">
-        <v>3789</v>
+        <v>3476.23</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>3.7663</v>
       </c>
       <c r="I13" t="n">
-        <v>5000</v>
+        <v>5491.27</v>
       </c>
       <c r="J13" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K13" t="n">
-        <v>4538</v>
+        <v>4842</v>
       </c>
       <c r="L13" t="n">
-        <v>431.6105</v>
+        <v>322.2617</v>
       </c>
       <c r="M13" t="n">
-        <v>9449</v>
+        <v>6234</v>
       </c>
       <c r="N13" t="n">
-        <v>8185</v>
+        <v>8697</v>
       </c>
       <c r="O13" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4402</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1437</v>
-      </c>
-      <c r="D14" t="n">
-        <v>983.42</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3022.71</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3965</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3114.93</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5.7376</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9855.709999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>147</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6540</v>
-      </c>
-      <c r="L14" t="n">
-        <v>788.1725</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6194</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13311</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5.7394</v>
+        <v>5.5898</v>
       </c>
     </row>
   </sheetData>
